--- a/output/meral/2024/sheets/year_2024.xlsx
+++ b/output/meral/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>44.73548387096775</v>
+        <v>49.24159249427355</v>
       </c>
       <c r="C2" t="n">
-        <v>31.29032258064516</v>
+        <v>44.04876818525931</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>41.6551724137931</v>
+        <v>47.89241983594215</v>
       </c>
       <c r="C3" t="n">
-        <v>28.20689655172414</v>
+        <v>42.04194889617648</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.10322580645161</v>
+        <v>44.98569259978208</v>
       </c>
       <c r="C4" t="n">
-        <v>13.44193548387097</v>
+        <v>42.06973403572292</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32.83</v>
+        <v>47.42658349171053</v>
       </c>
       <c r="C5" t="n">
-        <v>21.10333333333334</v>
+        <v>42.89799956838852</v>
       </c>
     </row>
   </sheetData>
